--- a/biology/Botanique/Ancistrocladaceae/Ancistrocladaceae.xlsx
+++ b/biology/Botanique/Ancistrocladaceae/Ancistrocladaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La petite famille des Ancistrocladaceae regroupe des plantes dicotylédones ; elle comprend 12 espèces réparties dans un seul genre, Ancistrocladus.
 Ce sont des lianes des régions tropicales, originaires d'Afrique et d'Asie du Sud-Est.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Ancistrocladus dérivé du grec αγκίστρων / ankistron, hameçon, et
 κλάδος / klados, branche, en référence aux branches  branches crochetées.
@@ -544,7 +558,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification phylogénétique situe cette famille dans l'ordre des Caryophyllales.
 </t>
@@ -575,9 +591,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (30 avr. 2010)[1], Angiosperm Phylogeny Website                        (21 mai 2010)[2], NCBI  (30 avr. 2010)[3] et DELTA Angio           (30 avr. 2010)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (30 avr. 2010), Angiosperm Phylogeny Website                        (21 mai 2010), NCBI  (30 avr. 2010) et DELTA Angio           (30 avr. 2010) :
 genre Ancistrocladus  Wall. (1829)</t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (30 avr. 2010)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (30 avr. 2010) :
 genre Ancistrocladus  Wall. (1829)
 Ancistrocladus abbreviatus  Airy Shaw (1949)
 Ancistrocladus attenuatus  Dyer (1874)
@@ -630,7 +650,7 @@
 Ancistrocladus tectorius  (Lour.) Merr. (1928 publ. 1930)
 Ancistrocladus uncinatus  Hutch. &amp; Dalziel (1927)
 Ancistrocladus wallichii  Planch., Ann. Sci. Nat. (1849)
-Selon NCBI  (30 avr. 2010)[3] :
+Selon NCBI  (30 avr. 2010) :
 genre Ancistrocladus
 Ancistrocladus abbreviatus
 Ancistrocladus attenuatus
